--- a/SLA Report Overview.xlsx
+++ b/SLA Report Overview.xlsx
@@ -5,12 +5,12 @@
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://api.box.com/wopi/files/1995914277468/WOPIServiceId_TP_BOX_2/WOPIUserId_-/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="N:\IS\Quality Assurance\ACCESSIBILITY\SLA Monthly Reports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="367" documentId="13_ncr:1_{E75D683B-5AF3-42FE-9AE9-FE259D4BA44A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{108A299D-10F5-479E-972C-8EAA518FC7D8}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F92D8337-C362-4349-89BA-E9AE6EA66144}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7785" yWindow="3150" windowWidth="23220" windowHeight="15345" xr2:uid="{C020AC1A-066C-49E3-9B8D-19805A06CB89}"/>
+    <workbookView xWindow="12555" yWindow="2400" windowWidth="38700" windowHeight="15345" xr2:uid="{C020AC1A-066C-49E3-9B8D-19805A06CB89}"/>
   </bookViews>
   <sheets>
     <sheet name="SLA and Time Data" sheetId="1" r:id="rId1"/>
@@ -6972,7 +6972,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="26" style="9" customWidth="1"/>
     <col min="2" max="2" width="16.28515625" style="9" bestFit="1" customWidth="1"/>

--- a/SLA Report Overview.xlsx
+++ b/SLA Report Overview.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="N:\IS\Quality Assurance\ACCESSIBILITY\SLA Monthly Reports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F92D8337-C362-4349-89BA-E9AE6EA66144}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D25537B8-10D5-400B-8096-8D083DD548B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="12555" yWindow="2400" windowWidth="38700" windowHeight="15345" xr2:uid="{C020AC1A-066C-49E3-9B8D-19805A06CB89}"/>
   </bookViews>
@@ -56,12 +56,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>Month</t>
-  </si>
-  <si>
-    <t>N/A</t>
   </si>
   <si>
     <t>Average (All Time)</t>
@@ -956,7 +953,7 @@
                   <c:v>45839</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>45870</c:v>
+                  <c:v>45894</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1310,7 +1307,7 @@
                   <c:v>45839</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>45870</c:v>
+                  <c:v>45894</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1628,7 +1625,7 @@
                   <c:v>45839</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>45870</c:v>
+                  <c:v>45894</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1939,7 +1936,7 @@
                   <c:v>45839</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>45870</c:v>
+                  <c:v>45894</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2250,7 +2247,7 @@
                   <c:v>45839</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>45870</c:v>
+                  <c:v>45894</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5430,6 +5427,81 @@
 <file path=xl/externalLinks/externalLink10.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="PSIAs This Month"/>
+      <sheetName val="50s This Month"/>
+      <sheetName val="Prototypes This Month"/>
+      <sheetName val="Peer Verification This Month"/>
+      <sheetName val="Holidays"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="4">
+          <cell r="L4">
+            <v>41.3</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="L7">
+            <v>0.2</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="L8">
+            <v>745.6</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1">
+        <row r="4">
+          <cell r="L4">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="L7">
+            <v>0.5</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="L8">
+            <v>54</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="2">
+        <row r="4">
+          <cell r="L4">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="L7">
+            <v>0.75</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="L8">
+            <v>203</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink11.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
     <sheetNames>
       <sheetName val="PSIAs This Month"/>
       <sheetName val="50s This Month"/>
@@ -5492,7 +5564,7 @@
       <sheetData sheetId="3">
         <row r="4">
           <cell r="L4">
-            <v>113.25</v>
+            <v>35.583333333333336</v>
           </cell>
         </row>
         <row r="7">
@@ -5506,75 +5578,6 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="4"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink11.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="PSIAs This Month"/>
-      <sheetName val="50s This Month"/>
-      <sheetName val="Prototypes This Month"/>
-      <sheetName val="Peer Verification This Month"/>
-      <sheetName val="Holidays"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="4">
-          <cell r="L4">
-            <v>41.3</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="L7">
-            <v>0.2</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="L8">
-            <v>745.6</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="1">
-        <row r="4">
-          <cell r="L4">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="L7">
-            <v>0.5</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="L8">
-            <v>54</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="2">
-        <row r="4">
-          <cell r="L4">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="L7">
-            <v>0.75</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="L8">
-            <v>203</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="3"/>
       <sheetData sheetId="4"/>
     </sheetDataSet>
   </externalBook>
@@ -5633,7 +5636,7 @@
       <sheetData sheetId="3">
         <row r="4">
           <cell r="L4">
-            <v>116.5</v>
+            <v>46.285714285714285</v>
           </cell>
         </row>
         <row r="7">
@@ -5643,7 +5646,7 @@
         </row>
         <row r="8">
           <cell r="L8">
-            <v>173.75</v>
+            <v>198.57142857142858</v>
           </cell>
         </row>
       </sheetData>
@@ -5958,11 +5961,6 @@
             <v>0.5</v>
           </cell>
         </row>
-        <row r="8">
-          <cell r="L8">
-            <v>141.91666666666666</v>
-          </cell>
-        </row>
       </sheetData>
       <sheetData sheetId="4"/>
     </sheetDataSet>
@@ -5977,82 +5975,77 @@
       <xxl21:absoluteUrl r:id="rId2"/>
     </xxl21:alternateUrls>
     <sheetNames>
+      <sheetName val="Overview"/>
+      <sheetName val="Prototypes"/>
+      <sheetName val="50% Reviews"/>
+      <sheetName val="PSIAs"/>
+      <sheetName val="Peer Verifications"/>
+      <sheetName val="Holidays"/>
+      <sheetName val="Peer Verifications This Month"/>
+      <sheetName val="Prototypes This Month"/>
+      <sheetName val="50s This Month"/>
       <sheetName val="PSIAs This Month"/>
-      <sheetName val="50s This Month"/>
-      <sheetName val="Prototypes This Month"/>
-      <sheetName val="Peer Verifications This Month"/>
-      <sheetName val="Holidays"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
-        <row r="4">
-          <cell r="L4">
+        <row r="10">
+          <cell r="C10">
+            <v>-1.4285714285714286</v>
+          </cell>
+          <cell r="F10">
+            <v>-2</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="C13">
+            <v>0.8571428571428571</v>
+          </cell>
+          <cell r="F13">
+            <v>0.5</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="C14">
+            <v>167.14285714285714</v>
+          </cell>
+          <cell r="F14">
+            <v>27.5</v>
+          </cell>
+        </row>
+        <row r="21">
+          <cell r="C21">
             <v>1.25</v>
           </cell>
-        </row>
-        <row r="7">
-          <cell r="L7">
+          <cell r="F21">
+            <v>4</v>
+          </cell>
+        </row>
+        <row r="24">
+          <cell r="C24">
             <v>0.75</v>
           </cell>
-        </row>
-        <row r="8">
-          <cell r="L8">
+          <cell r="F24">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="25">
+          <cell r="C25">
             <v>162.5</v>
           </cell>
+          <cell r="F25">
+            <v>165</v>
+          </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1">
-        <row r="4">
-          <cell r="L4">
-            <v>-2</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="L7">
-            <v>0.5</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="L8">
-            <v>27.5</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="2">
-        <row r="4">
-          <cell r="L4">
-            <v>-1.7142857142857142</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="L7">
-            <v>0.8571428571428571</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="L8">
-            <v>167.14285714285714</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="3">
-        <row r="5">
-          <cell r="L5">
-            <v>2</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="L7">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="L8">
-            <v>165</v>
-          </cell>
-        </row>
-      </sheetData>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
       <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6" refreshError="1"/>
+      <sheetData sheetId="7" refreshError="1"/>
+      <sheetData sheetId="8" refreshError="1"/>
+      <sheetData sheetId="9" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -6530,6 +6523,9 @@
 <file path=xl/externalLinks/externalLink9.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
     <sheetNames>
       <sheetName val="PSIAs This Month"/>
       <sheetName val="50s This Month"/>
@@ -6599,6 +6595,9 @@
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C9A2F292-8058-4BAE-B08E-ED62D0005CC0}" name="SLAs_Over_Time" displayName="SLAs_Over_Time" ref="A2:M20" totalsRowCount="1" headerRowDxfId="15" dataDxfId="14" totalsRowDxfId="13">
   <autoFilter ref="A2:M19" xr:uid="{C9A2F292-8058-4BAE-B08E-ED62D0005CC0}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:M19">
+    <sortCondition ref="A2:A19"/>
+  </sortState>
   <tableColumns count="13">
     <tableColumn id="1" xr3:uid="{5A0408F9-1240-40EF-B2CC-43DDE118B1F1}" name="Month" totalsRowLabel="Average (All Time)" totalsRowDxfId="12"/>
     <tableColumn id="2" xr3:uid="{1BDC8830-A1BF-4244-BFEE-8991EEFD6DF5}" name="On Time 1" totalsRowFunction="custom" totalsRowDxfId="11">
@@ -6635,11 +6634,11 @@
       <totalsRowFormula>AVERAGE(SLAs_Over_Time[Average Days Overdue 3])</totalsRowFormula>
     </tableColumn>
     <tableColumn id="6" xr3:uid="{673BED38-108D-475B-B69E-CD3CD15626AF}" name="On Time 4" totalsRowFunction="custom" totalsRowDxfId="2">
-      <calculatedColumnFormula>'[10]Peer Verification This Month'!$L$7</calculatedColumnFormula>
+      <calculatedColumnFormula>'[11]Peer Verification This Month'!$L$7</calculatedColumnFormula>
       <totalsRowFormula>AVERAGE(SLAs_Over_Time[On Time 4])</totalsRowFormula>
     </tableColumn>
     <tableColumn id="7" xr3:uid="{4CB59D73-8A1E-44DD-87D4-E55BF78D75ED}" name="Average Billed Minutes 4" totalsRowFunction="custom" totalsRowDxfId="1">
-      <calculatedColumnFormula>'[10]Prototypes This Month'!$L$8</calculatedColumnFormula>
+      <calculatedColumnFormula>'[11]Prototypes This Month'!$L$8</calculatedColumnFormula>
       <totalsRowFormula>AVERAGE(SLAs_Over_Time[Average Billed Minutes 4])</totalsRowFormula>
     </tableColumn>
     <tableColumn id="14" xr3:uid="{B719279A-8E87-4606-A878-7B34546FE9D6}" name="Average Days Overdue 4" totalsRowFunction="custom" totalsRowDxfId="0">
@@ -6993,22 +6992,22 @@
     <row r="1" spans="1:13" ht="38.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="11"/>
       <c r="B1" s="28" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C1" s="28"/>
       <c r="D1" s="28"/>
       <c r="E1" s="29" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F1" s="28"/>
       <c r="G1" s="28"/>
       <c r="H1" s="29" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I1" s="28"/>
       <c r="J1" s="28"/>
       <c r="K1" s="29" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="L1" s="28"/>
       <c r="M1" s="30"/>
@@ -7018,40 +7017,40 @@
         <v>0</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="E2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" s="3" t="s">
+      <c r="G2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="H2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I2" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="G2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="H2" s="3" t="s">
+      <c r="J2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="K2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="L2" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="J2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="K2" s="3" t="s">
+      <c r="M2" s="27" t="s">
         <v>14</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="M2" s="27" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
@@ -7094,15 +7093,9 @@
         <f>'[1]PSIAs This Month'!$L$4</f>
         <v>26.266666666666666</v>
       </c>
-      <c r="K3" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="L3" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="M3" s="12" t="s">
-        <v>1</v>
-      </c>
+      <c r="K3" s="6"/>
+      <c r="L3" s="7"/>
+      <c r="M3" s="12"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" s="20">
@@ -7144,15 +7137,9 @@
         <f>'[2]PSIAs This Month'!$L$4</f>
         <v>19.5</v>
       </c>
-      <c r="K4" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="M4" s="12" t="s">
-        <v>1</v>
-      </c>
+      <c r="K4" s="6"/>
+      <c r="L4" s="7"/>
+      <c r="M4" s="12"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" s="20">
@@ -7194,15 +7181,9 @@
         <f>'[3]PSIAs This Month'!$L$4</f>
         <v>15.4</v>
       </c>
-      <c r="K5" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="M5" s="12" t="s">
-        <v>1</v>
-      </c>
+      <c r="K5" s="6"/>
+      <c r="L5" s="7"/>
+      <c r="M5" s="12"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" s="20">
@@ -7244,15 +7225,9 @@
         <f>'[4]PSIAs This Month'!$L$4</f>
         <v>30.25</v>
       </c>
-      <c r="K6" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="M6" s="12" t="s">
-        <v>1</v>
-      </c>
+      <c r="K6" s="6"/>
+      <c r="L6" s="7"/>
+      <c r="M6" s="12"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" s="20">
@@ -7294,15 +7269,9 @@
         <f>'[5]PSIAs This Month'!$L$4</f>
         <v>54.75</v>
       </c>
-      <c r="K7" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="M7" s="12" t="s">
-        <v>1</v>
-      </c>
+      <c r="K7" s="6"/>
+      <c r="L7" s="7"/>
+      <c r="M7" s="12"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" s="20">
@@ -7344,15 +7313,9 @@
         <f>'[6]PSIAs This Month'!$L$4</f>
         <v>43</v>
       </c>
-      <c r="K8" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="M8" s="12" t="s">
-        <v>1</v>
-      </c>
+      <c r="K8" s="6"/>
+      <c r="L8" s="7"/>
+      <c r="M8" s="12"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" s="20">
@@ -7394,15 +7357,9 @@
         <f>'[7]PSIAs This Month'!$L$4</f>
         <v>39.142857142857146</v>
       </c>
-      <c r="K9" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="M9" s="12" t="s">
-        <v>1</v>
-      </c>
+      <c r="K9" s="6"/>
+      <c r="L9" s="7"/>
+      <c r="M9" s="12"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" s="20">
@@ -7444,15 +7401,9 @@
         <f>'[8]PSIAs This Month'!$L$4</f>
         <v>34.272727272727273</v>
       </c>
-      <c r="K10" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="M10" s="12" t="s">
-        <v>1</v>
-      </c>
+      <c r="K10" s="6"/>
+      <c r="L10" s="7"/>
+      <c r="M10" s="12"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" s="20">
@@ -7494,119 +7445,105 @@
         <f>'[9]PSIAs This Month'!$L$4</f>
         <v>24.2</v>
       </c>
-      <c r="K11" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="M11" s="15">
-        <f>'[10]Peer Verification This Month'!$L$4</f>
-        <v>113.25</v>
-      </c>
+      <c r="K11" s="6"/>
+      <c r="L11" s="7"/>
+      <c r="M11" s="15"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" s="20">
         <v>45658</v>
       </c>
       <c r="B12" s="16">
-        <f>'[11]Prototypes This Month'!$L$7</f>
+        <f>'[10]Prototypes This Month'!$L$7</f>
         <v>0.75</v>
       </c>
       <c r="C12" s="14">
-        <f>'[11]Prototypes This Month'!$L$8</f>
+        <f>'[10]Prototypes This Month'!$L$8</f>
         <v>203</v>
       </c>
       <c r="D12" s="14">
-        <f>'[11]Prototypes This Month'!$L$4</f>
+        <f>'[10]Prototypes This Month'!$L$4</f>
         <v>0</v>
       </c>
       <c r="E12" s="13">
-        <f>'[11]50s This Month'!$L$7</f>
+        <f>'[10]50s This Month'!$L$7</f>
         <v>0.5</v>
       </c>
       <c r="F12" s="14">
-        <f>'[11]50s This Month'!$L$8</f>
+        <f>'[10]50s This Month'!$L$8</f>
         <v>54</v>
       </c>
       <c r="G12" s="15">
-        <f>'[11]50s This Month'!$L$4</f>
+        <f>'[10]50s This Month'!$L$4</f>
         <v>1</v>
       </c>
       <c r="H12" s="16">
-        <f>'[11]PSIAs This Month'!$L$7</f>
+        <f>'[10]PSIAs This Month'!$L$7</f>
         <v>0.2</v>
       </c>
       <c r="I12" s="14">
-        <f>'[11]PSIAs This Month'!$L$8</f>
+        <f>'[10]PSIAs This Month'!$L$8</f>
         <v>745.6</v>
       </c>
       <c r="J12" s="14">
-        <f>'[11]PSIAs This Month'!$L$4</f>
+        <f>'[10]PSIAs This Month'!$L$4</f>
         <v>41.3</v>
       </c>
-      <c r="K12" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="M12" s="15">
-        <f>'[10]Peer Verification This Month'!$L$4</f>
-        <v>113.25</v>
-      </c>
+      <c r="K12" s="6"/>
+      <c r="L12" s="7"/>
+      <c r="M12" s="15"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13" s="20">
         <v>45689</v>
       </c>
       <c r="B13" s="16">
-        <f>'[10]Prototypes This Month'!$L$7</f>
+        <f>'[11]Prototypes This Month'!$L$7</f>
         <v>0.33333333333333331</v>
       </c>
       <c r="C13" s="14">
-        <f>'[10]Prototypes This Month'!$L$8</f>
+        <f>'[11]Prototypes This Month'!$L$8</f>
         <v>200</v>
       </c>
       <c r="D13" s="14">
-        <f>'[10]Prototypes This Month'!$L$4</f>
+        <f>'[11]Prototypes This Month'!$L$4</f>
         <v>1.3333333333333333</v>
       </c>
       <c r="E13" s="13">
-        <f>'[10]50s This Month'!$L$7</f>
+        <f>'[11]50s This Month'!$L$7</f>
         <v>0.8</v>
       </c>
       <c r="F13" s="14">
-        <f>'[10]50s This Month'!$L$8</f>
+        <f>'[11]50s This Month'!$L$8</f>
         <v>28.2</v>
       </c>
       <c r="G13" s="15">
-        <f>'[10]50s This Month'!$L$4</f>
+        <f>'[11]50s This Month'!$L$4</f>
         <v>-0.4</v>
       </c>
       <c r="H13" s="16">
-        <f>'[10]PSIAs This Month'!$L$7</f>
+        <f>'[11]PSIAs This Month'!$L$7</f>
         <v>0</v>
       </c>
       <c r="I13" s="14">
-        <f>'[10]PSIAs This Month'!$L$8</f>
+        <f>'[11]PSIAs This Month'!$L$8</f>
         <v>325.75</v>
       </c>
       <c r="J13" s="14">
-        <f>'[10]PSIAs This Month'!$L$4</f>
+        <f>'[11]PSIAs This Month'!$L$4</f>
         <v>10.75</v>
       </c>
       <c r="K13" s="13">
-        <f>'[10]Peer Verification This Month'!$L$7</f>
+        <f>'[11]Peer Verification This Month'!$L$7</f>
         <v>0.16666666666666666</v>
       </c>
       <c r="L13" s="14">
-        <f>'[10]Peer Verification This Month'!$L$8</f>
+        <f>'[11]Peer Verification This Month'!$L$8</f>
         <v>183.5</v>
       </c>
       <c r="M13" s="15">
-        <f>'[10]Peer Verification This Month'!$L$4</f>
-        <v>113.25</v>
+        <f>'[11]Peer Verification This Month'!$L$4</f>
+        <v>35.583333333333336</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.3">
@@ -7646,11 +7583,11 @@
       </c>
       <c r="L14" s="14">
         <f>'[12]Peer Verifications This Month'!$L$8</f>
-        <v>173.75</v>
+        <v>198.57142857142858</v>
       </c>
       <c r="M14" s="15">
         <f>'[12]Peer Verifications This Month'!$L$4</f>
-        <v>116.5</v>
+        <v>46.285714285714285</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.3">
@@ -7839,8 +7776,8 @@
         <v>0.5</v>
       </c>
       <c r="L18" s="14">
-        <f>'[17]Peer Verifications This Month'!$L$8</f>
-        <v>165</v>
+        <f>[17]PSIAs!$L$8</f>
+        <v>0</v>
       </c>
       <c r="M18" s="15">
         <f>'[16]Peer Verifications This Month'!$L$5</f>
@@ -7849,60 +7786,60 @@
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A19" s="20">
-        <v>45870</v>
+        <v>45894</v>
       </c>
       <c r="B19" s="16">
-        <f>'[17]Prototypes This Month'!$L$7</f>
+        <f>[17]Overview!$C$13</f>
         <v>0.8571428571428571</v>
       </c>
       <c r="C19" s="14">
-        <f>'[17]Prototypes This Month'!$L$8</f>
+        <f>[17]Overview!$C$14</f>
         <v>167.14285714285714</v>
       </c>
       <c r="D19" s="14">
-        <f>'[17]Prototypes This Month'!$L$4</f>
-        <v>-1.7142857142857142</v>
+        <f>[17]Overview!$C$10</f>
+        <v>-1.4285714285714286</v>
       </c>
       <c r="E19" s="13">
-        <f>'[17]50s This Month'!$L$7</f>
+        <f>[17]Overview!$F$13</f>
         <v>0.5</v>
       </c>
       <c r="F19" s="14">
-        <f>'[17]50s This Month'!$L$8</f>
+        <f>[17]Overview!$F$14</f>
         <v>27.5</v>
       </c>
       <c r="G19" s="15">
-        <f>'[17]50s This Month'!$L$4</f>
+        <f>[17]Overview!$F$10</f>
         <v>-2</v>
       </c>
       <c r="H19" s="16">
-        <f>'[17]PSIAs This Month'!$L$7</f>
+        <f>[17]Overview!$C$24</f>
         <v>0.75</v>
       </c>
       <c r="I19" s="14">
-        <f>'[17]PSIAs This Month'!$L$8</f>
+        <f>[17]Overview!$C$25</f>
         <v>162.5</v>
       </c>
       <c r="J19" s="14">
-        <f>'[17]PSIAs This Month'!$L$4</f>
+        <f>[17]Overview!$C$21</f>
         <v>1.25</v>
       </c>
       <c r="K19" s="13">
-        <f>'[17]Peer Verifications This Month'!$L$7</f>
+        <f>[17]Overview!$F$24</f>
         <v>0</v>
       </c>
       <c r="L19" s="14">
-        <f>'[16]Peer Verifications This Month'!$L$8</f>
-        <v>141.91666666666666</v>
+        <f>[17]Overview!$F$25</f>
+        <v>165</v>
       </c>
       <c r="M19" s="15">
-        <f>'[17]Peer Verifications This Month'!$L$5</f>
-        <v>2</v>
+        <f>[17]Overview!$F$21</f>
+        <v>4</v>
       </c>
     </row>
     <row r="20" spans="1:13" s="26" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="22" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B20" s="23">
         <f>AVERAGE(SLAs_Over_Time[On Time 1])</f>
@@ -7914,7 +7851,7 @@
       </c>
       <c r="D20" s="24">
         <f>AVERAGE(SLAs_Over_Time[Average Days Overdue 1])</f>
-        <v>1.258613445378151</v>
+        <v>1.2754201680672268</v>
       </c>
       <c r="E20" s="23">
         <f>AVERAGE(SLAs_Over_Time[On Time 2])</f>
@@ -7946,64 +7883,64 @@
       </c>
       <c r="L20" s="24">
         <f>AVERAGE(SLAs_Over_Time[Average Billed Minutes 4])</f>
-        <v>177.91666666666669</v>
+        <v>161.18877551020407</v>
       </c>
       <c r="M20" s="25">
         <f>AVERAGE(SLAs_Over_Time[Average Days Overdue 4])</f>
-        <v>57.498366013071895</v>
+        <v>20.72919167667067</v>
       </c>
     </row>
     <row r="21" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="21" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B21" s="17">
-        <f t="shared" ref="B21:M21" si="0">AVERAGE(B12:B19)</f>
-        <v>0.53110119047619042</v>
+        <f t="shared" ref="B21:M21" si="0">AVERAGE(B12:B18)</f>
+        <v>0.48452380952380952</v>
       </c>
       <c r="C21" s="18">
         <f t="shared" si="0"/>
-        <v>138.98452380952381</v>
+        <v>134.96190476190478</v>
       </c>
       <c r="D21" s="18">
         <f t="shared" si="0"/>
-        <v>2.5284226190476189</v>
+        <v>3.1345238095238095</v>
       </c>
       <c r="E21" s="17">
         <f t="shared" si="0"/>
-        <v>0.55999999999999994</v>
+        <v>0.57499999999999996</v>
       </c>
       <c r="F21" s="18">
         <f t="shared" si="0"/>
-        <v>55.739999999999995</v>
+        <v>62.8</v>
       </c>
       <c r="G21" s="19">
         <f t="shared" si="0"/>
-        <v>0.32</v>
+        <v>0.9</v>
       </c>
       <c r="H21" s="17">
         <f t="shared" si="0"/>
-        <v>0.36789321789321788</v>
+        <v>0.31330653473510617</v>
       </c>
       <c r="I21" s="18">
         <f t="shared" si="0"/>
-        <v>358.8071654040404</v>
+        <v>386.85104617604617</v>
       </c>
       <c r="J21" s="18">
         <f t="shared" si="0"/>
-        <v>10.257535173160171</v>
+        <v>11.544325912183053</v>
       </c>
       <c r="K21" s="17">
         <f t="shared" si="0"/>
-        <v>0.25154061624649859</v>
+        <v>0.29346405228758171</v>
       </c>
       <c r="L21" s="18">
         <f t="shared" si="0"/>
-        <v>177.91666666666669</v>
+        <v>160.55357142857142</v>
       </c>
       <c r="M21" s="19">
         <f t="shared" si="0"/>
-        <v>50.529411764705884</v>
+        <v>23.517390289449114</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.3">
@@ -8292,9 +8229,6 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
-  <ignoredErrors>
-    <ignoredError sqref="M3 M18" calculatedColumn="1"/>
-  </ignoredErrors>
   <tableParts count="1">
     <tablePart r:id="rId2"/>
   </tableParts>

--- a/SLA Report Overview.xlsx
+++ b/SLA Report Overview.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="N:\IS\Quality Assurance\ACCESSIBILITY\SLA Monthly Reports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D25537B8-10D5-400B-8096-8D083DD548B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65DD5CC3-D550-4693-8C25-BC92E816D4D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12555" yWindow="2400" windowWidth="38700" windowHeight="15345" xr2:uid="{C020AC1A-066C-49E3-9B8D-19805A06CB89}"/>
+    <workbookView xWindow="12120" yWindow="2250" windowWidth="38700" windowHeight="15345" activeTab="1" xr2:uid="{C020AC1A-066C-49E3-9B8D-19805A06CB89}"/>
   </bookViews>
   <sheets>
     <sheet name="SLA and Time Data" sheetId="1" r:id="rId1"/>
@@ -34,6 +34,7 @@
     <externalReference r:id="rId17"/>
     <externalReference r:id="rId18"/>
     <externalReference r:id="rId19"/>
+    <externalReference r:id="rId20"/>
   </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
@@ -900,10 +901,10 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>'SLA and Time Data'!$A$3:$A$20</c:f>
+              <c:f>'SLA and Time Data'!$A$3:$A$21</c:f>
               <c:numCache>
                 <c:formatCode>mmm\-yy</c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
                   <c:v>45383</c:v>
                 </c:pt>
@@ -954,16 +955,19 @@
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>45894</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>45930</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'SLA and Time Data'!$E$3:$E$20</c:f>
+              <c:f>'SLA and Time Data'!$E$3:$E$21</c:f>
               <c:numCache>
                 <c:formatCode>0.0%</c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
                   <c:v>0.75</c:v>
                 </c:pt>
@@ -1005,6 +1009,9 @@
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.75</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1234,7 +1241,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'SLA and Time Data'!$I$57</c:f>
+              <c:f>'SLA and Time Data'!$I$58</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
               </c:strCache>
@@ -1254,10 +1261,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'SLA and Time Data'!$A$3:$A$20</c:f>
+              <c:f>'SLA and Time Data'!$A$3:$A$21</c:f>
               <c:numCache>
                 <c:formatCode>mmm\-yy</c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
                   <c:v>45383</c:v>
                 </c:pt>
@@ -1308,13 +1315,16 @@
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>45894</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>45930</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'SLA and Time Data'!$I$58:$I$77</c:f>
+              <c:f>'SLA and Time Data'!$I$59:$I$78</c:f>
               <c:numCache>
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="20"/>
@@ -1554,7 +1564,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'SLA and Time Data'!$F$57</c:f>
+              <c:f>'SLA and Time Data'!$F$58</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
               </c:strCache>
@@ -1572,10 +1582,10 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>'SLA and Time Data'!$A$3:$A$20</c:f>
+              <c:f>'SLA and Time Data'!$A$3:$A$21</c:f>
               <c:numCache>
                 <c:formatCode>mmm\-yy</c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
                   <c:v>45383</c:v>
                 </c:pt>
@@ -1626,13 +1636,16 @@
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>45894</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>45930</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'SLA and Time Data'!$F$58:$F$77</c:f>
+              <c:f>'SLA and Time Data'!$F$59:$F$78</c:f>
               <c:numCache>
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="20"/>
@@ -1865,7 +1878,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'SLA and Time Data'!$K$57</c:f>
+              <c:f>'SLA and Time Data'!$K$58</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
               </c:strCache>
@@ -1883,10 +1896,10 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>'SLA and Time Data'!$A$3:$A$20</c:f>
+              <c:f>'SLA and Time Data'!$A$3:$A$21</c:f>
               <c:numCache>
                 <c:formatCode>mmm\-yy</c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
                   <c:v>45383</c:v>
                 </c:pt>
@@ -1937,13 +1950,16 @@
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>45894</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>45930</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'SLA and Time Data'!$K$58:$K$77</c:f>
+              <c:f>'SLA and Time Data'!$K$59:$K$78</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="20"/>
@@ -2176,7 +2192,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'SLA and Time Data'!$J$57</c:f>
+              <c:f>'SLA and Time Data'!$J$58</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
               </c:strCache>
@@ -2194,10 +2210,10 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>'SLA and Time Data'!$A$3:$A$20</c:f>
+              <c:f>'SLA and Time Data'!$A$3:$A$21</c:f>
               <c:numCache>
                 <c:formatCode>mmm\-yy</c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
                   <c:v>45383</c:v>
                 </c:pt>
@@ -2248,13 +2264,16 @@
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>45894</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>45930</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'SLA and Time Data'!$J$58:$J$77</c:f>
+              <c:f>'SLA and Time Data'!$J$59:$J$78</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="20"/>
@@ -5747,6 +5766,9 @@
 <file path=xl/externalLinks/externalLink14.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
     <sheetNames>
       <sheetName val="PSIAs This Month"/>
       <sheetName val="50s This Month"/>
@@ -5819,7 +5841,7 @@
         </row>
         <row r="8">
           <cell r="L8">
-            <v>209.25</v>
+            <v>214</v>
           </cell>
         </row>
       </sheetData>
@@ -5951,14 +5973,19 @@
         </row>
       </sheetData>
       <sheetData sheetId="3">
-        <row r="5">
-          <cell r="L5">
-            <v>6</v>
+        <row r="4">
+          <cell r="L4">
+            <v>0.66666666666666663</v>
           </cell>
         </row>
         <row r="7">
           <cell r="L7">
             <v>0.5</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="L8">
+            <v>141.91666666666666</v>
           </cell>
         </row>
       </sheetData>
@@ -5981,16 +6008,12 @@
       <sheetName val="PSIAs"/>
       <sheetName val="Peer Verifications"/>
       <sheetName val="Holidays"/>
-      <sheetName val="Peer Verifications This Month"/>
-      <sheetName val="Prototypes This Month"/>
-      <sheetName val="50s This Month"/>
-      <sheetName val="PSIAs This Month"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
         <row r="10">
           <cell r="C10">
-            <v>-1.4285714285714286</v>
+            <v>-1.5714285714285714</v>
           </cell>
           <cell r="F10">
             <v>-2</v>
@@ -6042,10 +6065,78 @@
       <sheetData sheetId="3"/>
       <sheetData sheetId="4"/>
       <sheetData sheetId="5"/>
-      <sheetData sheetId="6" refreshError="1"/>
-      <sheetData sheetId="7" refreshError="1"/>
-      <sheetData sheetId="8" refreshError="1"/>
-      <sheetData sheetId="9" refreshError="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink18.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Overview"/>
+      <sheetName val="Prototypes"/>
+      <sheetName val="50% Reviews"/>
+      <sheetName val="PSIAs"/>
+      <sheetName val="Peer Verifications"/>
+      <sheetName val="Holidays"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="10">
+          <cell r="C10">
+            <v>2.5333333333333332</v>
+          </cell>
+          <cell r="F10">
+            <v>-0.125</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="C13">
+            <v>0.4</v>
+          </cell>
+          <cell r="F13">
+            <v>0.75</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="C14">
+            <v>151.46666666666667</v>
+          </cell>
+          <cell r="F14">
+            <v>73</v>
+          </cell>
+        </row>
+        <row r="21">
+          <cell r="C21">
+            <v>2.5833333333333335</v>
+          </cell>
+          <cell r="F21">
+            <v>1.1428571428571428</v>
+          </cell>
+        </row>
+        <row r="24">
+          <cell r="C24">
+            <v>0.41666666666666669</v>
+          </cell>
+          <cell r="F24">
+            <v>0.7142857142857143</v>
+          </cell>
+        </row>
+        <row r="25">
+          <cell r="C25">
+            <v>160.08333333333334</v>
+          </cell>
+          <cell r="F25">
+            <v>93.428571428571431</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -6054,6 +6145,9 @@
 <file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
     <sheetNames>
       <sheetName val="PSIAs This Month"/>
       <sheetName val="50s This Month"/>
@@ -6121,6 +6215,9 @@
 <file path=xl/externalLinks/externalLink3.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
     <sheetNames>
       <sheetName val="PSIAs This Month"/>
       <sheetName val="50s This Month"/>
@@ -6188,6 +6285,9 @@
 <file path=xl/externalLinks/externalLink4.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
     <sheetNames>
       <sheetName val="PSIAs This Month"/>
       <sheetName val="50s This Month"/>
@@ -6255,6 +6355,9 @@
 <file path=xl/externalLinks/externalLink5.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
     <sheetNames>
       <sheetName val="PSIAs This Month"/>
       <sheetName val="50s This Month"/>
@@ -6322,6 +6425,9 @@
 <file path=xl/externalLinks/externalLink6.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
     <sheetNames>
       <sheetName val="PSIAs This Month"/>
       <sheetName val="50s This Month"/>
@@ -6389,6 +6495,9 @@
 <file path=xl/externalLinks/externalLink7.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
     <sheetNames>
       <sheetName val="PSIAs This Month"/>
       <sheetName val="50s This Month"/>
@@ -6456,6 +6565,9 @@
 <file path=xl/externalLinks/externalLink8.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
     <sheetNames>
       <sheetName val="PSIAs This Month"/>
       <sheetName val="50s This Month"/>
@@ -6593,8 +6705,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C9A2F292-8058-4BAE-B08E-ED62D0005CC0}" name="SLAs_Over_Time" displayName="SLAs_Over_Time" ref="A2:M20" totalsRowCount="1" headerRowDxfId="15" dataDxfId="14" totalsRowDxfId="13">
-  <autoFilter ref="A2:M19" xr:uid="{C9A2F292-8058-4BAE-B08E-ED62D0005CC0}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C9A2F292-8058-4BAE-B08E-ED62D0005CC0}" name="SLAs_Over_Time" displayName="SLAs_Over_Time" ref="A2:M21" totalsRowCount="1" headerRowDxfId="15" dataDxfId="14" totalsRowDxfId="13">
+  <autoFilter ref="A2:M20" xr:uid="{C9A2F292-8058-4BAE-B08E-ED62D0005CC0}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:M19">
     <sortCondition ref="A2:A19"/>
   </sortState>
@@ -6967,9 +7079,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1EBD338C-EF25-4406-A530-FCF51186A088}">
-  <dimension ref="A1:M78"/>
+  <dimension ref="A1:M79"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="K20" sqref="K20"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
   <cols>
@@ -7689,7 +7803,7 @@
       </c>
       <c r="L16" s="14">
         <f>'[14]Peer Verifications This Month'!$L$8</f>
-        <v>209.25</v>
+        <v>214</v>
       </c>
       <c r="M16" s="15">
         <f>'[14]Peer Verifications This Month'!$L$4</f>
@@ -7776,12 +7890,12 @@
         <v>0.5</v>
       </c>
       <c r="L18" s="14">
-        <f>[17]PSIAs!$L$8</f>
-        <v>0</v>
+        <f>'[16]Peer Verifications This Month'!$L$8</f>
+        <v>141.91666666666666</v>
       </c>
       <c r="M18" s="15">
-        <f>'[16]Peer Verifications This Month'!$L$5</f>
-        <v>6</v>
+        <f>'[16]Peer Verifications This Month'!$L$4</f>
+        <v>0.66666666666666663</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.3">
@@ -7798,7 +7912,7 @@
       </c>
       <c r="D19" s="14">
         <f>[17]Overview!$C$10</f>
-        <v>-1.4285714285714286</v>
+        <v>-1.5714285714285714</v>
       </c>
       <c r="E19" s="13">
         <f>[17]Overview!$F$13</f>
@@ -7837,116 +7951,164 @@
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:13" s="26" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="22" t="s">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A20" s="20">
+        <v>45930</v>
+      </c>
+      <c r="B20" s="16">
+        <f>[18]Overview!$C$13</f>
+        <v>0.4</v>
+      </c>
+      <c r="C20" s="14">
+        <f>[18]Overview!$C$14</f>
+        <v>151.46666666666667</v>
+      </c>
+      <c r="D20" s="14">
+        <f>[18]Overview!$C$10</f>
+        <v>2.5333333333333332</v>
+      </c>
+      <c r="E20" s="13">
+        <f>[18]Overview!$F$13</f>
+        <v>0.75</v>
+      </c>
+      <c r="F20" s="14">
+        <f>[18]Overview!$F$14</f>
+        <v>73</v>
+      </c>
+      <c r="G20" s="15">
+        <f>[18]Overview!$F$10</f>
+        <v>-0.125</v>
+      </c>
+      <c r="H20" s="16">
+        <f>[18]Overview!$C$24</f>
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="I20" s="14">
+        <f>[18]Overview!$C$25</f>
+        <v>160.08333333333334</v>
+      </c>
+      <c r="J20" s="14">
+        <f>[18]Overview!$C$21</f>
+        <v>2.5833333333333335</v>
+      </c>
+      <c r="K20" s="13">
+        <f>[18]Overview!$F$24</f>
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="L20" s="14">
+        <f>[18]Overview!$F$25</f>
+        <v>93.428571428571431</v>
+      </c>
+      <c r="M20" s="15">
+        <f>[18]Overview!$F$21</f>
+        <v>1.1428571428571428</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" s="26" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="B20" s="23">
+      <c r="B21" s="23">
         <f>AVERAGE(SLAs_Over_Time[On Time 1])</f>
-        <v>0.58746498599439778</v>
-      </c>
-      <c r="C20" s="24">
+        <v>0.57705026455026465</v>
+      </c>
+      <c r="C21" s="24">
         <f>AVERAGE(SLAs_Over_Time[Average Billed Minutes 1])</f>
-        <v>124.94897292250235</v>
-      </c>
-      <c r="D20" s="24">
+        <v>126.42217813051148</v>
+      </c>
+      <c r="D21" s="24">
         <f>AVERAGE(SLAs_Over_Time[Average Days Overdue 1])</f>
-        <v>1.2754201680672268</v>
-      </c>
-      <c r="E20" s="23">
+        <v>1.3373677248677245</v>
+      </c>
+      <c r="E21" s="23">
         <f>AVERAGE(SLAs_Over_Time[On Time 2])</f>
-        <v>0.78928571428571437</v>
-      </c>
-      <c r="F20" s="24">
+        <v>0.78666666666666674</v>
+      </c>
+      <c r="F21" s="24">
         <f>AVERAGE(SLAs_Over_Time[Average Billed Minutes 2])</f>
-        <v>35.228571428571428</v>
-      </c>
-      <c r="G20" s="25">
+        <v>37.74666666666667</v>
+      </c>
+      <c r="G21" s="25">
         <f>AVERAGE(SLAs_Over_Time[Average Days Overdue 2])</f>
-        <v>-2.0107142857142857</v>
-      </c>
-      <c r="H20" s="23">
+        <v>-1.885</v>
+      </c>
+      <c r="H21" s="23">
         <f>AVERAGE(SLAs_Over_Time[On Time 3])</f>
-        <v>0.2176895000424412</v>
-      </c>
-      <c r="I20" s="24">
+        <v>0.2287437870771204</v>
+      </c>
+      <c r="I21" s="24">
         <f>AVERAGE(SLAs_Over_Time[Average Billed Minutes 3])</f>
-        <v>547.93422247686954</v>
-      </c>
-      <c r="J20" s="24">
+        <v>526.3869508577842</v>
+      </c>
+      <c r="J21" s="24">
         <f>AVERAGE(SLAs_Over_Time[Average Days Overdue 3])</f>
-        <v>21.696619556913674</v>
-      </c>
-      <c r="K20" s="23">
+        <v>20.63477032227032</v>
+      </c>
+      <c r="K21" s="23">
         <f>AVERAGE(SLAs_Over_Time[On Time 4])</f>
-        <v>0.25154061624649859</v>
-      </c>
-      <c r="L20" s="24">
+        <v>0.30938375350140057</v>
+      </c>
+      <c r="L21" s="24">
         <f>AVERAGE(SLAs_Over_Time[Average Billed Minutes 4])</f>
-        <v>161.18877551020407</v>
-      </c>
-      <c r="M20" s="25">
+        <v>171.05208333333331</v>
+      </c>
+      <c r="M21" s="25">
         <f>AVERAGE(SLAs_Over_Time[Average Days Overdue 4])</f>
-        <v>20.72919167667067</v>
+        <v>17.614233193277311</v>
       </c>
     </row>
-    <row r="21" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="21" t="s">
+    <row r="22" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="B21" s="17">
-        <f t="shared" ref="B21:M21" si="0">AVERAGE(B12:B18)</f>
+      <c r="B22" s="17">
+        <f t="shared" ref="B22:M22" si="0">AVERAGE(B12:B18)</f>
         <v>0.48452380952380952</v>
       </c>
-      <c r="C21" s="18">
+      <c r="C22" s="18">
         <f t="shared" si="0"/>
         <v>134.96190476190478</v>
       </c>
-      <c r="D21" s="18">
+      <c r="D22" s="18">
         <f t="shared" si="0"/>
         <v>3.1345238095238095</v>
       </c>
-      <c r="E21" s="17">
+      <c r="E22" s="17">
         <f t="shared" si="0"/>
         <v>0.57499999999999996</v>
       </c>
-      <c r="F21" s="18">
+      <c r="F22" s="18">
         <f t="shared" si="0"/>
         <v>62.8</v>
       </c>
-      <c r="G21" s="19">
+      <c r="G22" s="19">
         <f t="shared" si="0"/>
         <v>0.9</v>
       </c>
-      <c r="H21" s="17">
+      <c r="H22" s="17">
         <f t="shared" si="0"/>
         <v>0.31330653473510617</v>
       </c>
-      <c r="I21" s="18">
+      <c r="I22" s="18">
         <f t="shared" si="0"/>
         <v>386.85104617604617</v>
       </c>
-      <c r="J21" s="18">
+      <c r="J22" s="18">
         <f t="shared" si="0"/>
         <v>11.544325912183053</v>
       </c>
-      <c r="K21" s="17">
+      <c r="K22" s="17">
         <f t="shared" si="0"/>
         <v>0.29346405228758171</v>
       </c>
-      <c r="L21" s="18">
+      <c r="L22" s="18">
         <f t="shared" si="0"/>
-        <v>160.55357142857142</v>
-      </c>
-      <c r="M21" s="19">
+        <v>184.99801587301587</v>
+      </c>
+      <c r="M22" s="19">
         <f t="shared" si="0"/>
-        <v>23.517390289449114</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B22" s="5"/>
-      <c r="E22" s="5"/>
-      <c r="K22" s="5"/>
+        <v>22.628501400560225</v>
+      </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B23" s="5"/>
@@ -8043,21 +8205,18 @@
       <c r="E41" s="5"/>
       <c r="K41" s="5"/>
     </row>
-    <row r="57" spans="6:11" x14ac:dyDescent="0.3">
-      <c r="F57" s="8"/>
-      <c r="G57" s="8"/>
-      <c r="H57" s="8"/>
-      <c r="I57" s="8"/>
-      <c r="J57" s="8"/>
-      <c r="K57" s="8"/>
+    <row r="42" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B42" s="5"/>
+      <c r="E42" s="5"/>
+      <c r="K42" s="5"/>
     </row>
     <row r="58" spans="6:11" x14ac:dyDescent="0.3">
-      <c r="F58" s="5"/>
-      <c r="G58" s="4"/>
-      <c r="H58" s="4"/>
-      <c r="I58" s="5"/>
-      <c r="J58" s="4"/>
-      <c r="K58" s="4"/>
+      <c r="F58" s="8"/>
+      <c r="G58" s="8"/>
+      <c r="H58" s="8"/>
+      <c r="I58" s="8"/>
+      <c r="J58" s="8"/>
+      <c r="K58" s="8"/>
     </row>
     <row r="59" spans="6:11" x14ac:dyDescent="0.3">
       <c r="F59" s="5"/>
@@ -8204,10 +8363,10 @@
       <c r="K76" s="4"/>
     </row>
     <row r="77" spans="6:11" x14ac:dyDescent="0.3">
-      <c r="F77" s="10"/>
+      <c r="F77" s="5"/>
       <c r="G77" s="4"/>
       <c r="H77" s="4"/>
-      <c r="I77" s="10"/>
+      <c r="I77" s="5"/>
       <c r="J77" s="4"/>
       <c r="K77" s="4"/>
     </row>
@@ -8218,6 +8377,14 @@
       <c r="I78" s="10"/>
       <c r="J78" s="4"/>
       <c r="K78" s="4"/>
+    </row>
+    <row r="79" spans="6:11" x14ac:dyDescent="0.3">
+      <c r="F79" s="10"/>
+      <c r="G79" s="4"/>
+      <c r="H79" s="4"/>
+      <c r="I79" s="10"/>
+      <c r="J79" s="4"/>
+      <c r="K79" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -8239,7 +8406,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C79F88B-748A-4118-88A3-14D74757B608}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>

--- a/SLA Report Overview.xlsx
+++ b/SLA Report Overview.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="N:\IS\Quality Assurance\ACCESSIBILITY\SLA Monthly Reports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65DD5CC3-D550-4693-8C25-BC92E816D4D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DE18E49-2B2F-42C6-B9A1-75A74A435CCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12120" yWindow="2250" windowWidth="38700" windowHeight="15345" activeTab="1" xr2:uid="{C020AC1A-066C-49E3-9B8D-19805A06CB89}"/>
+    <workbookView xWindow="12120" yWindow="2250" windowWidth="38700" windowHeight="15345" xr2:uid="{C020AC1A-066C-49E3-9B8D-19805A06CB89}"/>
   </bookViews>
   <sheets>
     <sheet name="SLA and Time Data" sheetId="1" r:id="rId1"/>
@@ -839,6 +839,36 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Tasks</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> On Time (Percentage) by Month</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -871,90 +901,95 @@
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="0"/>
+          <c:idx val="1"/>
           <c:order val="0"/>
           <c:tx>
-            <c:strRef>
-              <c:f>'SLA and Time Data'!$E$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>On Time 2</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+            <c:v>Prototypes</c:v>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:invertIfNegative val="0"/>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'SLA and Time Data'!$A$3:$A$21</c:f>
+              <c:f>'SLA and Time Data'!$A$3:$A$20</c:f>
               <c:numCache>
                 <c:formatCode>mmm\-yy</c:formatCode>
                 <c:ptCount val="18"/>
                 <c:pt idx="0">
-                  <c:v>45383</c:v>
+                  <c:v>45412</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>45413</c:v>
+                  <c:v>45443</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>45444</c:v>
+                  <c:v>45473</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>45474</c:v>
+                  <c:v>45504</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>45505</c:v>
+                  <c:v>45535</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>45536</c:v>
+                  <c:v>45565</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>45566</c:v>
+                  <c:v>45596</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>45597</c:v>
+                  <c:v>45626</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>45627</c:v>
+                  <c:v>45657</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>45658</c:v>
+                  <c:v>45688</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>45689</c:v>
+                  <c:v>45716</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>45717</c:v>
+                  <c:v>45747</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>45748</c:v>
+                  <c:v>45777</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>45778</c:v>
+                  <c:v>45808</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>45809</c:v>
+                  <c:v>45838</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>45839</c:v>
+                  <c:v>45869</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>45894</c:v>
+                  <c:v>45900</c:v>
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>45930</c:v>
@@ -964,7 +999,170 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'SLA and Time Data'!$E$3:$E$21</c:f>
+              <c:f>'SLA and Time Data'!$B$3:$B$20</c:f>
+              <c:numCache>
+                <c:formatCode>0.0%</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.5714285714285714</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.66666666666666663</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.33333333333333331</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.875</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.83333333333333337</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.8571428571428571</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-CD55-4233-9A29-D6EE497461CB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>50% Reviews</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'SLA and Time Data'!$A$3:$A$20</c:f>
+              <c:numCache>
+                <c:formatCode>mmm\-yy</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>45412</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>45443</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>45473</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>45504</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>45535</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>45565</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>45596</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>45626</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>45657</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>45688</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>45716</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>45747</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>45777</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>45808</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>45838</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>45869</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>45900</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>45930</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'SLA and Time Data'!$E$3:$E$20</c:f>
               <c:numCache>
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="18"/>
@@ -1016,9 +1214,306 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-8436-434D-A07B-0BC5501DB623}"/>
+              <c16:uniqueId val="{00000001-CD55-4233-9A29-D6EE497461CB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>PSIAs</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'SLA and Time Data'!$A$3:$A$20</c:f>
+              <c:numCache>
+                <c:formatCode>mmm\-yy</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>45412</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>45443</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>45473</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>45504</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>45535</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>45565</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>45596</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>45626</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>45657</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>45688</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>45716</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>45747</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>45777</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>45808</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>45838</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>45869</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>45900</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>45930</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'SLA and Time Data'!$H$3:$H$20</c:f>
+              <c:numCache>
+                <c:formatCode>0.0%</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>0.26666666666666666</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9.0909090909090912E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.44444444444444442</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.72727272727272729</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.5714285714285714</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.41666666666666669</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-CD55-4233-9A29-D6EE497461CB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>Peer Verifications</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'SLA and Time Data'!$A$3:$A$20</c:f>
+              <c:numCache>
+                <c:formatCode>mmm\-yy</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>45412</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>45443</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>45473</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>45504</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>45535</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>45565</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>45596</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>45626</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>45657</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>45688</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>45716</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>45747</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>45777</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>45808</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>45838</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>45869</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>45900</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>45930</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'SLA and Time Data'!$K$3:$K$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="10" formatCode="0.0%">
+                  <c:v>0.16666666666666666</c:v>
+                </c:pt>
+                <c:pt idx="11" formatCode="0.0%">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12" formatCode="0.0%">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13" formatCode="0.0%">
+                  <c:v>0.29411764705882354</c:v>
+                </c:pt>
+                <c:pt idx="14" formatCode="0.0%">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="15" formatCode="0.0%">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="16" formatCode="0.0%">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17" formatCode="0.0%">
+                  <c:v>0.7142857142857143</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-CD55-4233-9A29-D6EE497461CB}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1030,19 +1525,19 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:gapWidth val="219"/>
-        <c:overlap val="-27"/>
-        <c:axId val="1487647423"/>
-        <c:axId val="1487645983"/>
-      </c:barChart>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="55515632"/>
+        <c:axId val="55433280"/>
+      </c:lineChart>
       <c:dateAx>
-        <c:axId val="1487647423"/>
+        <c:axId val="55515632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="mmm\-yy" sourceLinked="1"/>
+        <c:axPos val="t"/>
+        <c:numFmt formatCode="[$-409]mmm\-yy;@" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1079,16 +1574,17 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1487645983"/>
-        <c:crosses val="autoZero"/>
+        <c:crossAx val="55433280"/>
+        <c:crosses val="max"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="1487645983"/>
+        <c:axId val="55433280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="1"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -1106,8 +1602,8 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="0.0%" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
+        <c:numFmt formatCode="0%" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
@@ -1137,7 +1633,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1487647423"/>
+        <c:crossAx val="55515632"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1149,9 +1645,47 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -1201,6 +1735,36 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Average Billed Minutes</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> by Month</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1237,84 +1801,91 @@
         <c:grouping val="standard"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="0"/>
+          <c:idx val="1"/>
           <c:order val="0"/>
           <c:tx>
-            <c:strRef>
-              <c:f>'SLA and Time Data'!$I$58</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-              </c:strCache>
-            </c:strRef>
+            <c:v>Prototypes</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:schemeClr val="accent2"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'SLA and Time Data'!$A$3:$A$21</c:f>
+              <c:f>'SLA and Time Data'!$A$3:$A$20</c:f>
               <c:numCache>
                 <c:formatCode>mmm\-yy</c:formatCode>
                 <c:ptCount val="18"/>
                 <c:pt idx="0">
-                  <c:v>45383</c:v>
+                  <c:v>45412</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>45413</c:v>
+                  <c:v>45443</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>45444</c:v>
+                  <c:v>45473</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>45474</c:v>
+                  <c:v>45504</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>45505</c:v>
+                  <c:v>45535</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>45536</c:v>
+                  <c:v>45565</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>45566</c:v>
+                  <c:v>45596</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>45597</c:v>
+                  <c:v>45626</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>45627</c:v>
+                  <c:v>45657</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>45658</c:v>
+                  <c:v>45688</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>45689</c:v>
+                  <c:v>45716</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>45717</c:v>
+                  <c:v>45747</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>45748</c:v>
+                  <c:v>45777</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>45778</c:v>
+                  <c:v>45808</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>45809</c:v>
+                  <c:v>45838</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>45839</c:v>
+                  <c:v>45869</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>45894</c:v>
+                  <c:v>45900</c:v>
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>45930</c:v>
@@ -1324,17 +1895,521 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'SLA and Time Data'!$I$59:$I$78</c:f>
+              <c:f>'SLA and Time Data'!$C$3:$C$20</c:f>
               <c:numCache>
-                <c:formatCode>0.0%</c:formatCode>
-                <c:ptCount val="20"/>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>81.333333333333329</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>117.11111111111111</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>132</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>61.8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>292.25</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>84.428571428571431</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>69.333333333333329</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>203</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>218.625</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>97.5</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>105.375</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>56.4</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>63.833333333333336</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>167.14285714285714</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>151.46666666666667</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-22EB-4EDB-A01F-0A6EC0C57BA6}"/>
+              <c16:uniqueId val="{00000000-CDEA-4875-8E21-3BED8ACA734C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>50% Reviews</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'SLA and Time Data'!$A$3:$A$20</c:f>
+              <c:numCache>
+                <c:formatCode>mmm\-yy</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>45412</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>45443</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>45473</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>45504</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>45535</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>45565</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>45596</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>45626</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>45657</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>45688</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>45716</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>45747</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>45777</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>45808</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>45838</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>45869</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>45900</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>45930</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'SLA and Time Data'!$F$3:$F$20</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>19.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>11.25</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>22.75</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>28.2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>119</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>27.5</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>73</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-CDEA-4875-8E21-3BED8ACA734C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>PSIAs</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'SLA and Time Data'!$A$3:$A$20</c:f>
+              <c:numCache>
+                <c:formatCode>mmm\-yy</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>45412</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>45443</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>45473</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>45504</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>45535</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>45565</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>45596</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>45626</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>45657</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>45688</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>45716</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>45747</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>45777</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>45808</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>45838</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>45869</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>45900</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>45930</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'SLA and Time Data'!$I$3:$I$20</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>336.33333333333331</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>625.33333333333337</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>845.6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1426.75</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>987.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>999.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>568.57142857142856</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>291.63636363636363</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>363.2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>745.6</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>325.75</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>180.5</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>325.875</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>474.77777777777777</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>437.45454545454544</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>218</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>162.5</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>160.08333333333334</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-CDEA-4875-8E21-3BED8ACA734C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>Peer Verifications</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'SLA and Time Data'!$A$3:$A$20</c:f>
+              <c:numCache>
+                <c:formatCode>mmm\-yy</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>45412</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>45443</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>45473</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>45504</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>45535</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>45565</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>45596</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>45626</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>45657</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>45688</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>45716</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>45747</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>45777</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>45808</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>45838</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>45869</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>45900</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>45930</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'SLA and Time Data'!$L$3:$L$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="10" formatCode="0">
+                  <c:v>183.5</c:v>
+                </c:pt>
+                <c:pt idx="11" formatCode="0">
+                  <c:v>198.57142857142858</c:v>
+                </c:pt>
+                <c:pt idx="12" formatCode="0">
+                  <c:v>210.4</c:v>
+                </c:pt>
+                <c:pt idx="13" formatCode="0">
+                  <c:v>214</c:v>
+                </c:pt>
+                <c:pt idx="14" formatCode="0">
+                  <c:v>161.6</c:v>
+                </c:pt>
+                <c:pt idx="15" formatCode="0">
+                  <c:v>141.91666666666666</c:v>
+                </c:pt>
+                <c:pt idx="16" formatCode="0">
+                  <c:v>165</c:v>
+                </c:pt>
+                <c:pt idx="17" formatCode="0">
+                  <c:v>93.428571428571431</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-CDEA-4875-8E21-3BED8ACA734C}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1346,18 +2421,19 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
+        <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="916106336"/>
-        <c:axId val="916106816"/>
+        <c:axId val="55515632"/>
+        <c:axId val="55433280"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="916106336"/>
+        <c:axId val="55515632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="mmm\-yy" sourceLinked="1"/>
+        <c:axPos val="t"/>
+        <c:numFmt formatCode="[$-409]mmm\-yy;@" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1394,16 +2470,17 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="916106816"/>
-        <c:crosses val="autoZero"/>
+        <c:crossAx val="55433280"/>
+        <c:crosses val="max"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="916106816"/>
+        <c:axId val="55433280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="700"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -1421,8 +2498,8 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="0.0%" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
+        <c:numFmt formatCode="#,##0" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
@@ -1452,7 +2529,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="916106336"/>
+        <c:crossAx val="55515632"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1464,6 +2541,37 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -1523,6 +2631,36 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Average Days Overdue </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t>by Month</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1555,87 +2693,95 @@
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="0"/>
+          <c:idx val="1"/>
           <c:order val="0"/>
           <c:tx>
-            <c:strRef>
-              <c:f>'SLA and Time Data'!$F$58</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-              </c:strCache>
-            </c:strRef>
+            <c:v>Prototypes</c:v>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:invertIfNegative val="0"/>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'SLA and Time Data'!$A$3:$A$21</c:f>
+              <c:f>'SLA and Time Data'!$A$3:$A$20</c:f>
               <c:numCache>
                 <c:formatCode>mmm\-yy</c:formatCode>
                 <c:ptCount val="18"/>
                 <c:pt idx="0">
-                  <c:v>45383</c:v>
+                  <c:v>45412</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>45413</c:v>
+                  <c:v>45443</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>45444</c:v>
+                  <c:v>45473</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>45474</c:v>
+                  <c:v>45504</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>45505</c:v>
+                  <c:v>45535</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>45536</c:v>
+                  <c:v>45565</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>45566</c:v>
+                  <c:v>45596</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>45597</c:v>
+                  <c:v>45626</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>45627</c:v>
+                  <c:v>45657</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>45658</c:v>
+                  <c:v>45688</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>45689</c:v>
+                  <c:v>45716</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>45717</c:v>
+                  <c:v>45747</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>45748</c:v>
+                  <c:v>45777</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>45778</c:v>
+                  <c:v>45808</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>45809</c:v>
+                  <c:v>45838</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>45839</c:v>
+                  <c:v>45869</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>45894</c:v>
+                  <c:v>45900</c:v>
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>45930</c:v>
@@ -1645,16 +2791,521 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'SLA and Time Data'!$F$59:$F$78</c:f>
+              <c:f>'SLA and Time Data'!$D$3:$D$20</c:f>
               <c:numCache>
-                <c:formatCode>0.0%</c:formatCode>
-                <c:ptCount val="20"/>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>-1.1666666666666667</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-2.4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-1.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-0.25</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.2857142857142858</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.3333333333333333</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>13.125</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-1.1666666666666667</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-1.5714285714285714</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2.5333333333333332</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-14E9-406F-84D7-1E02277119EA}"/>
+              <c16:uniqueId val="{00000000-321F-42A5-8060-F0139ABDF67D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>50% Reviews</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'SLA and Time Data'!$A$3:$A$20</c:f>
+              <c:numCache>
+                <c:formatCode>mmm\-yy</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>45412</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>45443</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>45473</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>45504</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>45535</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>45565</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>45596</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>45626</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>45657</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>45688</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>45716</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>45747</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>45777</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>45808</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>45838</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>45869</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>45900</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>45930</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'SLA and Time Data'!$G$3:$G$20</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-22</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-0.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-1.25</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-1.25</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-0.4</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-0.125</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-321F-42A5-8060-F0139ABDF67D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>PSIAs</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'SLA and Time Data'!$A$3:$A$20</c:f>
+              <c:numCache>
+                <c:formatCode>mmm\-yy</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>45412</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>45443</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>45473</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>45504</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>45535</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>45565</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>45596</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>45626</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>45657</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>45688</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>45716</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>45747</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>45777</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>45808</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>45838</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>45869</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>45900</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>45930</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'SLA and Time Data'!$J$3:$J$20</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>26.266666666666666</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>19.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15.4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30.25</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>54.75</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>39.142857142857146</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>34.272727272727273</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>24.2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>41.3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10.75</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11.25</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12.125</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>5.333333333333333</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-9.0909090909090912E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.14285714285714285</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.25</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2.5833333333333335</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-321F-42A5-8060-F0139ABDF67D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>Peer Verifications</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'SLA and Time Data'!$A$3:$A$20</c:f>
+              <c:numCache>
+                <c:formatCode>mmm\-yy</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>45412</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>45443</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>45473</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>45504</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>45535</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>45565</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>45596</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>45626</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>45657</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>45688</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>45716</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>45747</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>45777</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>45808</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>45838</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>45869</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>45900</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>45930</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'SLA and Time Data'!$M$3:$M$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="10" formatCode="0">
+                  <c:v>35.583333333333336</c:v>
+                </c:pt>
+                <c:pt idx="11" formatCode="0">
+                  <c:v>46.285714285714285</c:v>
+                </c:pt>
+                <c:pt idx="12" formatCode="0">
+                  <c:v>35.200000000000003</c:v>
+                </c:pt>
+                <c:pt idx="13" formatCode="0">
+                  <c:v>18.235294117647058</c:v>
+                </c:pt>
+                <c:pt idx="14" formatCode="0">
+                  <c:v>-0.2</c:v>
+                </c:pt>
+                <c:pt idx="15" formatCode="0">
+                  <c:v>0.66666666666666663</c:v>
+                </c:pt>
+                <c:pt idx="16" formatCode="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="17" formatCode="0">
+                  <c:v>1.1428571428571428</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-321F-42A5-8060-F0139ABDF67D}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1666,19 +3317,19 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:gapWidth val="219"/>
-        <c:overlap val="-27"/>
-        <c:axId val="1486419008"/>
-        <c:axId val="1486417088"/>
-      </c:barChart>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="55515632"/>
+        <c:axId val="55433280"/>
+      </c:lineChart>
       <c:dateAx>
-        <c:axId val="1486419008"/>
+        <c:axId val="55515632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="mmm\-yy" sourceLinked="1"/>
+        <c:axPos val="t"/>
+        <c:numFmt formatCode="[$-409]mmm\-yy;@" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1715,16 +3366,486 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1486417088"/>
-        <c:crosses val="autoZero"/>
+        <c:crossAx val="55433280"/>
+        <c:crosses val="max"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="1486417088"/>
+        <c:axId val="55433280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="20"/>
+          <c:min val="-10"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="#,##0" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="55515632"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="103"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="3"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Prototypes On Time</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> (Percentage)</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'SLA and Time Data'!$B$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>On Time 1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:cat>
+            <c:numRef>
+              <c:f>'SLA and Time Data'!$A$3:$A$20</c:f>
+              <c:numCache>
+                <c:formatCode>mmm\-yy</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>45412</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>45443</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>45473</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>45504</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>45535</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>45565</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>45596</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>45626</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>45657</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>45688</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>45716</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>45747</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>45777</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>45808</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>45838</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>45869</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>45900</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>45930</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'SLA and Time Data'!$B$3:$B$20</c:f>
+              <c:numCache>
+                <c:formatCode>0.0%</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.5714285714285714</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.66666666666666663</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.33333333333333331</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.875</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.83333333333333337</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.8571428571428571</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-2290-404C-9208-EC222ACC75B8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="1072373616"/>
+        <c:axId val="1072374096"/>
+      </c:lineChart>
+      <c:dateAx>
+        <c:axId val="1072373616"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="t"/>
+        <c:numFmt formatCode="mmm\-yy" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1072374096"/>
+        <c:crosses val="max"/>
+        <c:auto val="0"/>
+        <c:lblOffset val="100"/>
+        <c:baseTimeUnit val="months"/>
+      </c:dateAx>
+      <c:valAx>
+        <c:axId val="1072374096"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -1773,7 +3894,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1486419008"/>
+        <c:crossAx val="1072373616"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1788,6 +3909,13 @@
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -1822,21 +3950,46 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
+      <c14:style val="108"/>
     </mc:Choice>
     <mc:Fallback>
-      <c:style val="2"/>
+      <c:style val="8"/>
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Prototypes Average Billed Minutes</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1869,87 +4022,117 @@
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'SLA and Time Data'!$K$58</c:f>
+              <c:f>'SLA and Time Data'!$C$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Average Billed Minutes 1</c:v>
+                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:invertIfNegative val="0"/>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
           <c:cat>
             <c:numRef>
-              <c:f>'SLA and Time Data'!$A$3:$A$21</c:f>
+              <c:f>'SLA and Time Data'!$A$3:$A$20</c:f>
               <c:numCache>
                 <c:formatCode>mmm\-yy</c:formatCode>
                 <c:ptCount val="18"/>
                 <c:pt idx="0">
-                  <c:v>45383</c:v>
+                  <c:v>45412</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>45413</c:v>
+                  <c:v>45443</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>45444</c:v>
+                  <c:v>45473</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>45474</c:v>
+                  <c:v>45504</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>45505</c:v>
+                  <c:v>45535</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>45536</c:v>
+                  <c:v>45565</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>45566</c:v>
+                  <c:v>45596</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>45597</c:v>
+                  <c:v>45626</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>45627</c:v>
+                  <c:v>45657</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>45658</c:v>
+                  <c:v>45688</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>45689</c:v>
+                  <c:v>45716</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>45717</c:v>
+                  <c:v>45747</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>45748</c:v>
+                  <c:v>45777</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>45778</c:v>
+                  <c:v>45808</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>45809</c:v>
+                  <c:v>45838</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>45839</c:v>
+                  <c:v>45869</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>45894</c:v>
+                  <c:v>45900</c:v>
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>45930</c:v>
@@ -1959,16 +4142,71 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'SLA and Time Data'!$K$59:$K$78</c:f>
+              <c:f>'SLA and Time Data'!$C$3:$C$20</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>81.333333333333329</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>117.11111111111111</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>132</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>61.8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>292.25</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>84.428571428571431</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>69.333333333333329</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>203</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>218.625</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>97.5</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>105.375</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>56.4</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>63.833333333333336</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>167.14285714285714</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>151.46666666666667</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-D5EF-4457-95AA-10A230A46138}"/>
+              <c16:uniqueId val="{00000001-5E8A-48C7-BFEF-0C62E83D9F00}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1980,20 +4218,20 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:gapWidth val="219"/>
-        <c:overlap val="-27"/>
-        <c:axId val="1487647423"/>
-        <c:axId val="1487645983"/>
-      </c:barChart>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="48229504"/>
+        <c:axId val="48231904"/>
+      </c:lineChart>
       <c:dateAx>
-        <c:axId val="1487647423"/>
+        <c:axId val="48229504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
-        <c:axPos val="b"/>
+        <c:axPos val="t"/>
         <c:numFmt formatCode="mmm\-yy" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
+        <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
@@ -2029,14 +4267,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1487645983"/>
-        <c:crosses val="autoZero"/>
+        <c:crossAx val="48231904"/>
+        <c:crosses val="max"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="1487645983"/>
+        <c:axId val="48231904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2087,7 +4325,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1487647423"/>
+        <c:crossAx val="48229504"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2102,6 +4340,13 @@
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -2136,21 +4381,46 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
+      <c14:style val="104"/>
     </mc:Choice>
     <mc:Fallback>
-      <c:style val="2"/>
+      <c:style val="4"/>
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Prototypes Average Days Overdue</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2183,87 +4453,117 @@
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'SLA and Time Data'!$J$58</c:f>
+              <c:f>'SLA and Time Data'!$D$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Average Days Overdue 1</c:v>
+                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:invertIfNegative val="0"/>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
           <c:cat>
             <c:numRef>
-              <c:f>'SLA and Time Data'!$A$3:$A$21</c:f>
+              <c:f>'SLA and Time Data'!$A$3:$A$20</c:f>
               <c:numCache>
                 <c:formatCode>mmm\-yy</c:formatCode>
                 <c:ptCount val="18"/>
                 <c:pt idx="0">
-                  <c:v>45383</c:v>
+                  <c:v>45412</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>45413</c:v>
+                  <c:v>45443</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>45444</c:v>
+                  <c:v>45473</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>45474</c:v>
+                  <c:v>45504</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>45505</c:v>
+                  <c:v>45535</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>45536</c:v>
+                  <c:v>45565</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>45566</c:v>
+                  <c:v>45596</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>45597</c:v>
+                  <c:v>45626</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>45627</c:v>
+                  <c:v>45657</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>45658</c:v>
+                  <c:v>45688</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>45689</c:v>
+                  <c:v>45716</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>45717</c:v>
+                  <c:v>45747</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>45748</c:v>
+                  <c:v>45777</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>45778</c:v>
+                  <c:v>45808</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>45809</c:v>
+                  <c:v>45838</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>45839</c:v>
+                  <c:v>45869</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>45894</c:v>
+                  <c:v>45900</c:v>
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>45930</c:v>
@@ -2273,16 +4573,71 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'SLA and Time Data'!$J$59:$J$78</c:f>
+              <c:f>'SLA and Time Data'!$D$3:$D$20</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>-1.1666666666666667</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-2.4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-1.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-0.25</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.2857142857142858</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.3333333333333333</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>13.125</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-1.1666666666666667</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-1.5714285714285714</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2.5333333333333332</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-5D47-4DF1-8D4B-E659FD0738F3}"/>
+              <c16:uniqueId val="{00000001-EF8C-47A1-9E37-47DD3A3B11A5}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2294,20 +4649,20 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:gapWidth val="219"/>
-        <c:overlap val="-27"/>
-        <c:axId val="1487647423"/>
-        <c:axId val="1487645983"/>
-      </c:barChart>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="52611888"/>
+        <c:axId val="99916464"/>
+      </c:lineChart>
       <c:dateAx>
-        <c:axId val="1487647423"/>
+        <c:axId val="52611888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
-        <c:axPos val="b"/>
+        <c:axPos val="t"/>
         <c:numFmt formatCode="mmm\-yy" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
+        <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
@@ -2343,14 +4698,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1487645983"/>
-        <c:crosses val="autoZero"/>
+        <c:crossAx val="99916464"/>
+        <c:crosses val="max"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="1487645983"/>
+        <c:axId val="99916464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2401,7 +4756,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1487647423"/>
+        <c:crossAx val="52611888"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2416,6 +4771,13 @@
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -2571,87 +4933,25 @@
 </file>
 
 <file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="withinLinearReversed" id="21">
   <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
 </cs:colorStyle>
 </file>
 
 <file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="withinLinear" id="19">
+  <a:schemeClr val="accent6"/>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="withinLinear" id="15">
   <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
 </cs:colorStyle>
 </file>
 
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -3154,7 +5454,7 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -3262,11 +5562,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
@@ -3277,11 +5572,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
@@ -3313,9 +5603,6 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -3670,7 +5957,7 @@
 </file>
 
 <file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -4173,7 +6460,7 @@
 </file>
 
 <file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -4676,7 +6963,7 @@
 </file>
 
 <file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -5178,27 +7465,530 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>264320</xdr:colOff>
-      <xdr:row>4</xdr:row>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>1</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>29</xdr:col>
-      <xdr:colOff>261938</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>259556</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>47626</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
+        <xdr:cNvPr id="25" name="Chart 24">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3603015D-EA46-41E8-BB97-7A9D08DD2576}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{384A5A76-B78A-497B-8857-E452ED3C182B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5220,23 +8010,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>192882</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>259556</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>107156</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2">
+        <xdr:cNvPr id="26" name="Chart 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D8EB4BE7-FEAC-4EBC-91B2-B7A8949EC711}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{232AB924-811F-4A38-9156-CCE334F96FD4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5258,23 +8048,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>307182</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>29</xdr:col>
-      <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>259556</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>107156</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Chart 3">
+        <xdr:cNvPr id="27" name="Chart 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ECE5BBCC-1A36-4C2A-ADBD-35187FE84F7A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F3C827CE-46C3-4884-B75B-C5BBB2318CC6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5296,23 +8086,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>2858</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>61913</xdr:rowOff>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>240507</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>136208</xdr:rowOff>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="5" name="Chart 4">
+        <xdr:cNvPr id="28" name="Chart 27">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C037F49E-3124-4379-9984-1315338EA608}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4D0CA258-9413-4396-8E6E-4C39B05E7D07}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5334,23 +8124,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>538163</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>166688</xdr:rowOff>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>162402</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>60008</xdr:rowOff>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="6" name="Chart 5">
+        <xdr:cNvPr id="29" name="Chart 28">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C4E2DDDE-6A33-4545-B086-83D21435858E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C9C099B0-F39D-4895-B477-EE5DA4852DB8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5365,6 +8155,44 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="30" name="Chart 29">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{201F5BA8-A27A-4C57-A6D6-0D06019842E8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -7081,9 +9909,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1EBD338C-EF25-4406-A530-FCF51186A088}">
   <dimension ref="A1:M79"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="K20" sqref="K20"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
   <cols>
@@ -7169,7 +9995,7 @@
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" s="20">
-        <v>45383</v>
+        <v>45412</v>
       </c>
       <c r="B3" s="13">
         <f>'[1]Prototypes This Month'!$L$7</f>
@@ -7213,7 +10039,7 @@
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" s="20">
-        <v>45413</v>
+        <v>45443</v>
       </c>
       <c r="B4" s="13">
         <f>'[2]Prototypes This Month'!$L$7</f>
@@ -7257,7 +10083,7 @@
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" s="20">
-        <v>45444</v>
+        <v>45473</v>
       </c>
       <c r="B5" s="16">
         <f>'[3]Prototypes This Month'!$L$7</f>
@@ -7301,7 +10127,7 @@
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" s="20">
-        <v>45474</v>
+        <v>45504</v>
       </c>
       <c r="B6" s="16">
         <f>'[4]Prototypes This Month'!$L$7</f>
@@ -7345,7 +10171,7 @@
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" s="20">
-        <v>45505</v>
+        <v>45535</v>
       </c>
       <c r="B7" s="16">
         <f>'[5]Prototypes This Month'!$L$7</f>
@@ -7389,7 +10215,7 @@
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" s="20">
-        <v>45536</v>
+        <v>45565</v>
       </c>
       <c r="B8" s="16">
         <f>'[6]Prototypes This Month'!$L$7</f>
@@ -7433,7 +10259,7 @@
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" s="20">
-        <v>45566</v>
+        <v>45596</v>
       </c>
       <c r="B9" s="16">
         <f>'[7]Prototypes This Month'!$L$7</f>
@@ -7477,7 +10303,7 @@
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" s="20">
-        <v>45597</v>
+        <v>45626</v>
       </c>
       <c r="B10" s="16">
         <f>'[8]Prototypes This Month'!$L$7</f>
@@ -7521,7 +10347,7 @@
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" s="20">
-        <v>45627</v>
+        <v>45657</v>
       </c>
       <c r="B11" s="16">
         <f>'[9]Prototypes This Month'!$L$7</f>
@@ -7565,7 +10391,7 @@
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" s="20">
-        <v>45658</v>
+        <v>45688</v>
       </c>
       <c r="B12" s="16">
         <f>'[10]Prototypes This Month'!$L$7</f>
@@ -7609,7 +10435,7 @@
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13" s="20">
-        <v>45689</v>
+        <v>45716</v>
       </c>
       <c r="B13" s="16">
         <f>'[11]Prototypes This Month'!$L$7</f>
@@ -7662,7 +10488,7 @@
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14" s="20">
-        <v>45717</v>
+        <v>45747</v>
       </c>
       <c r="B14" s="16">
         <f>'[12]Prototypes This Month'!$L$7</f>
@@ -7706,7 +10532,7 @@
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15" s="20">
-        <v>45748</v>
+        <v>45777</v>
       </c>
       <c r="B15" s="16">
         <f>'[13]Prototypes This Month'!$L$7</f>
@@ -7759,7 +10585,7 @@
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16" s="20">
-        <v>45778</v>
+        <v>45808</v>
       </c>
       <c r="B16" s="16">
         <f>'[14]Prototypes This Month'!$L$7</f>
@@ -7812,7 +10638,7 @@
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A17" s="20">
-        <v>45809</v>
+        <v>45838</v>
       </c>
       <c r="B17" s="16">
         <f>'[15]Prototypes This Month'!$L$7</f>
@@ -7856,7 +10682,7 @@
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A18" s="20">
-        <v>45839</v>
+        <v>45869</v>
       </c>
       <c r="B18" s="16">
         <f>'[16]Prototypes This Month'!$L$7</f>
@@ -7900,7 +10726,7 @@
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A19" s="20">
-        <v>45894</v>
+        <v>45900</v>
       </c>
       <c r="B19" s="16">
         <f>[17]Overview!$C$13</f>
@@ -8406,7 +11232,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C79F88B-748A-4118-88A3-14D74757B608}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>

--- a/SLA Report Overview.xlsx
+++ b/SLA Report Overview.xlsx
@@ -2,13 +2,13 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
-  <workbookPr hidePivotFieldList="1" defaultThemeVersion="202300"/>
+  <workbookPr updateLinks="always" hidePivotFieldList="1" defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="N:\IS\Quality Assurance\ACCESSIBILITY\SLA Monthly Reports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A961D1F4-50DE-4E02-88FD-E3EC569A14F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6ADFA2E-35F7-4993-93CA-20ABF8AAB96D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="12120" yWindow="2250" windowWidth="38700" windowHeight="15345" xr2:uid="{C020AC1A-066C-49E3-9B8D-19805A06CB89}"/>
   </bookViews>

--- a/SLA Report Overview.xlsx
+++ b/SLA Report Overview.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr updateLinks="always" hidePivotFieldList="1" defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="N:\IS\Quality Assurance\ACCESSIBILITY\SLA Monthly Reports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6ADFA2E-35F7-4993-93CA-20ABF8AAB96D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D77EF209-72BA-4188-93E9-360210677828}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12120" yWindow="2250" windowWidth="38700" windowHeight="15345" xr2:uid="{C020AC1A-066C-49E3-9B8D-19805A06CB89}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21120" xr2:uid="{C020AC1A-066C-49E3-9B8D-19805A06CB89}"/>
   </bookViews>
   <sheets>
     <sheet name="SLA and Time Data" sheetId="1" r:id="rId1"/>
@@ -1077,7 +1077,7 @@
                   <c:v>0.8571428571428571</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.4</c:v>
+                  <c:v>0.35714285714285715</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1485,7 +1485,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="17" formatCode="0.0%">
-                  <c:v>0.7142857142857143</c:v>
+                  <c:v>0.83333333333333337</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1888,7 +1888,7 @@
                   <c:v>165</c:v>
                 </c:pt>
                 <c:pt idx="17" formatCode="0">
-                  <c:v>93.428571428571431</c:v>
+                  <c:v>86.166666666666671</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2290,7 +2290,7 @@
                   <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="17" formatCode="0">
-                  <c:v>1.1428571428571428</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2721,7 +2721,7 @@
                   <c:v>167.14285714285714</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>151.46666666666667</c:v>
+                  <c:v>162.28571428571428</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3153,7 +3153,7 @@
                   <c:v>-1.5714285714285714</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>2.5333333333333332</c:v>
+                  <c:v>2.7142857142857144</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3588,7 +3588,7 @@
                   <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.75</c:v>
+                  <c:v>0.7142857142857143</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4012,7 +4012,7 @@
                   <c:v>27.5</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>73</c:v>
+                  <c:v>83.428571428571431</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4435,7 +4435,7 @@
                   <c:v>-2</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>-0.125</c:v>
+                  <c:v>-0.14285714285714285</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13200,26 +13200,26 @@
       <sheetData sheetId="0">
         <row r="10">
           <cell r="C10">
-            <v>2.5333333333333332</v>
+            <v>2.7142857142857144</v>
           </cell>
           <cell r="F10">
-            <v>-0.125</v>
+            <v>-0.14285714285714285</v>
           </cell>
         </row>
         <row r="13">
           <cell r="C13">
-            <v>0.4</v>
+            <v>0.35714285714285715</v>
           </cell>
           <cell r="F13">
-            <v>0.75</v>
+            <v>0.7142857142857143</v>
           </cell>
         </row>
         <row r="14">
           <cell r="C14">
-            <v>151.46666666666667</v>
+            <v>162.28571428571428</v>
           </cell>
           <cell r="F14">
-            <v>73</v>
+            <v>83.428571428571431</v>
           </cell>
         </row>
         <row r="21">
@@ -13227,7 +13227,7 @@
             <v>2.5833333333333335</v>
           </cell>
           <cell r="F21">
-            <v>1.1428571428571428</v>
+            <v>1</v>
           </cell>
         </row>
         <row r="24">
@@ -13235,7 +13235,7 @@
             <v>0.41666666666666669</v>
           </cell>
           <cell r="F24">
-            <v>0.7142857142857143</v>
+            <v>0.83333333333333337</v>
           </cell>
         </row>
         <row r="25">
@@ -13243,7 +13243,7 @@
             <v>160.08333333333334</v>
           </cell>
           <cell r="F25">
-            <v>93.428571428571431</v>
+            <v>86.166666666666671</v>
           </cell>
         </row>
       </sheetData>
@@ -15070,27 +15070,27 @@
       </c>
       <c r="B20" s="16">
         <f>[18]Overview!$C$13</f>
-        <v>0.4</v>
+        <v>0.35714285714285715</v>
       </c>
       <c r="C20" s="14">
         <f>[18]Overview!$C$14</f>
-        <v>151.46666666666667</v>
+        <v>162.28571428571428</v>
       </c>
       <c r="D20" s="14">
         <f>[18]Overview!$C$10</f>
-        <v>2.5333333333333332</v>
+        <v>2.7142857142857144</v>
       </c>
       <c r="E20" s="13">
         <f>[18]Overview!$F$13</f>
-        <v>0.75</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="F20" s="14">
         <f>[18]Overview!$F$14</f>
-        <v>73</v>
+        <v>83.428571428571431</v>
       </c>
       <c r="G20" s="15">
         <f>[18]Overview!$F$10</f>
-        <v>-0.125</v>
+        <v>-0.14285714285714285</v>
       </c>
       <c r="H20" s="16">
         <f>[18]Overview!$C$24</f>
@@ -15106,15 +15106,15 @@
       </c>
       <c r="K20" s="13">
         <f>[18]Overview!$F$24</f>
-        <v>0.7142857142857143</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="L20" s="14">
         <f>[18]Overview!$F$25</f>
-        <v>93.428571428571431</v>
+        <v>86.166666666666671</v>
       </c>
       <c r="M20" s="15">
         <f>[18]Overview!$F$21</f>
-        <v>1.1428571428571428</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:13" s="24" customFormat="1" x14ac:dyDescent="0.3">
@@ -15123,27 +15123,27 @@
       </c>
       <c r="B21" s="26">
         <f>AVERAGE(SLAs_Over_Time[On Time 1])</f>
-        <v>0.57705026455026465</v>
+        <v>0.57466931216931227</v>
       </c>
       <c r="C21" s="22">
         <f>AVERAGE(SLAs_Over_Time[Average Billed Minutes 1])</f>
-        <v>126.42217813051148</v>
+        <v>127.02323633156968</v>
       </c>
       <c r="D21" s="22">
         <f>AVERAGE(SLAs_Over_Time[Average Days Overdue 1])</f>
-        <v>1.3373677248677245</v>
+        <v>1.3474206349206348</v>
       </c>
       <c r="E21" s="26">
         <f>AVERAGE(SLAs_Over_Time[On Time 2])</f>
-        <v>0.78666666666666674</v>
+        <v>0.78428571428571425</v>
       </c>
       <c r="F21" s="22">
         <f>AVERAGE(SLAs_Over_Time[Average Billed Minutes 2])</f>
-        <v>37.74666666666667</v>
+        <v>38.441904761904759</v>
       </c>
       <c r="G21" s="23">
         <f>AVERAGE(SLAs_Over_Time[Average Days Overdue 2])</f>
-        <v>-1.885</v>
+        <v>-1.886190476190476</v>
       </c>
       <c r="H21" s="26">
         <f>AVERAGE(SLAs_Over_Time[On Time 3])</f>
@@ -15159,15 +15159,15 @@
       </c>
       <c r="K21" s="26">
         <f>AVERAGE(SLAs_Over_Time[On Time 4])</f>
-        <v>0.30938375350140057</v>
+        <v>0.32426470588235295</v>
       </c>
       <c r="L21" s="22">
         <f>AVERAGE(SLAs_Over_Time[Average Billed Minutes 4])</f>
-        <v>171.05208333333331</v>
+        <v>170.14434523809524</v>
       </c>
       <c r="M21" s="23">
         <f>AVERAGE(SLAs_Over_Time[Average Days Overdue 4])</f>
-        <v>17.614233193277311</v>
+        <v>17.596376050420169</v>
       </c>
     </row>
     <row r="22" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
@@ -15176,27 +15176,27 @@
       </c>
       <c r="B22" s="27">
         <f ca="1">AVERAGEIFS(SLAs_Over_Time[On Time 1], SLAs_Over_Time[Month], "&gt;=1/1/" &amp; YEAR(TODAY()), SLAs_Over_Time[Month], "&lt;=12/31/" &amp; YEAR(TODAY()))</f>
-        <v>0.51653439153439151</v>
+        <v>0.51177248677248666</v>
       </c>
       <c r="C22" s="17">
         <f ca="1">AVERAGEIFS(SLAs_Over_Time[Average Billed Minutes 1], SLAs_Over_Time[Month], "&gt;=1/1/" &amp; YEAR(TODAY()), SLAs_Over_Time[Month], "&lt;=12/31/" &amp; YEAR(TODAY()))</f>
-        <v>140.37142857142857</v>
+        <v>141.57354497354495</v>
       </c>
       <c r="D22" s="18">
         <f ca="1">AVERAGEIFS(SLAs_Over_Time[Average Days Overdue 1], SLAs_Over_Time[Month], "&gt;=1/1/" &amp; YEAR(TODAY()), SLAs_Over_Time[Month], "&lt;=12/31/" &amp; YEAR(TODAY()))</f>
-        <v>2.5448412698412692</v>
+        <v>2.5649470899470899</v>
       </c>
       <c r="E22" s="27">
         <f ca="1">AVERAGEIFS(SLAs_Over_Time[On Time 2], SLAs_Over_Time[Month], "&gt;=1/1/" &amp; YEAR(TODAY()), SLAs_Over_Time[Month], "&lt;=12/31/" &amp; YEAR(TODAY()))</f>
-        <v>0.59166666666666667</v>
+        <v>0.58571428571428574</v>
       </c>
       <c r="F22" s="17">
         <f ca="1">AVERAGEIFS(SLAs_Over_Time[Average Billed Minutes 2], SLAs_Over_Time[Month], "&gt;=1/1/" &amp; YEAR(TODAY()), SLAs_Over_Time[Month], "&lt;=12/31/" &amp; YEAR(TODAY()))</f>
-        <v>58.616666666666667</v>
+        <v>60.354761904761908</v>
       </c>
       <c r="G22" s="18">
         <f ca="1">AVERAGEIFS(SLAs_Over_Time[Average Days Overdue 2], SLAs_Over_Time[Month], "&gt;=1/1/" &amp; YEAR(TODAY()), SLAs_Over_Time[Month], "&lt;=12/31/" &amp; YEAR(TODAY()))</f>
-        <v>0.24583333333333335</v>
+        <v>0.24285714285714288</v>
       </c>
       <c r="H22" s="27">
         <f ca="1">AVERAGEIFS(SLAs_Over_Time[On Time 3], SLAs_Over_Time[Month], "&gt;=1/1/" &amp; YEAR(TODAY()), SLAs_Over_Time[Month], "&lt;=12/31/" &amp; YEAR(TODAY()))</f>
@@ -15212,15 +15212,15 @@
       </c>
       <c r="K22" s="27">
         <f ca="1">AVERAGEIFS(SLAs_Over_Time[On Time 4], SLAs_Over_Time[Month], "&gt;=1/1/" &amp; YEAR(TODAY()), SLAs_Over_Time[Month], "&lt;=12/31/" &amp; YEAR(TODAY()))</f>
-        <v>0.30938375350140057</v>
+        <v>0.32426470588235295</v>
       </c>
       <c r="L22" s="17">
         <f ca="1">AVERAGEIFS(SLAs_Over_Time[Average Billed Minutes 4], SLAs_Over_Time[Month], "&gt;=1/1/" &amp; YEAR(TODAY()), SLAs_Over_Time[Month], "&lt;=12/31/" &amp; YEAR(TODAY()))</f>
-        <v>171.05208333333331</v>
+        <v>170.14434523809524</v>
       </c>
       <c r="M22" s="18">
         <f ca="1">AVERAGEIFS(SLAs_Over_Time[Average Days Overdue 4], SLAs_Over_Time[Month], "&gt;=1/1/" &amp; YEAR(TODAY()), SLAs_Over_Time[Month], "&lt;=12/31/" &amp; YEAR(TODAY()))</f>
-        <v>17.614233193277311</v>
+        <v>17.596376050420169</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.3">
